--- a/study/Deposit.xlsx
+++ b/study/Deposit.xlsx
@@ -19,46 +19,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>김수빈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>김효주</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>이주미</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>심규영</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>이정민</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>최지원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>누적</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>벌금</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>정산</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 합</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 벌금 총합</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 지출</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌금 총합</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 벌금</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -68,12 +80,20 @@
   <numFmts count="1">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,33 +159,37 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -449,172 +473,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="11.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" customWidth="1"/>
+    <col min="9" max="9" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
         <v>45229</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>45236</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>45243</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>45250</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>45257</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
         <v>10000</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <f>SUM(B2:F2)</f>
         <v>10000</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <f>G2-H2</f>
+        <v>10000</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>10000</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <f t="shared" ref="G3:G7" si="0">SUM(B3:F3)</f>
         <v>10000</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <f t="shared" ref="I3:I7" si="1">G3-H3</f>
+        <v>10000</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>10000</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>10000</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>10000</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>10000</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="B8" s="9">
+        <f>SUM(H2:H7)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9">
+        <v>18000</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="9">
+        <f>B8+B10-B9</f>
+        <v>18000</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B11:I11"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
